--- a/01-Resignation-Predictor/updated_data/updated_data.xlsx
+++ b/01-Resignation-Predictor/updated_data/updated_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Employee_ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Employee Annual Salary$</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Monthly Medical contribution$</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Monthly Dental Contribution$</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Monthly Vision Contribution$</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Bonus $</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Years_Of_Service</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Employee HR rate</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t># of Hours per week</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Years_Since_Last_Promotion</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -520,46 +525,49 @@
         <v>94103</v>
       </c>
       <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
         <v>130800</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>130</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>35</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>13865</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>5.2</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>60</v>
       </c>
-      <c r="L2" t="n">
-        <v>40</v>
-      </c>
       <c r="M2" t="n">
-        <v>2.778918548939083</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
+        <v>2.803559206023272</v>
+      </c>
+      <c r="O2" t="n">
         <v>34</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -573,46 +581,49 @@
         <v>94111</v>
       </c>
       <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
         <v>74250</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>105</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>30</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>17</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4344</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1.7</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>117</v>
       </c>
-      <c r="L3" t="n">
-        <v>40</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.541409993155373</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
+        <v>1.566050650239562</v>
+      </c>
+      <c r="O3" t="n">
         <v>29</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -626,46 +637,49 @@
         <v>10009</v>
       </c>
       <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
         <v>125850</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>130</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>35</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>19</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15920</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>1.3</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>147</v>
       </c>
-      <c r="L4" t="n">
-        <v>40</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.223819301848049</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
+        <v>1.248459958932238</v>
+      </c>
+      <c r="O4" t="n">
         <v>31</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -679,46 +693,49 @@
         <v>60605</v>
       </c>
       <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
         <v>84750</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>105</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>30</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>17</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>5890</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>3.9</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>153</v>
       </c>
-      <c r="L5" t="n">
-        <v>40</v>
-      </c>
       <c r="M5" t="n">
-        <v>2.275154004106776</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
+        <v>2.299794661190965</v>
+      </c>
+      <c r="O5" t="n">
         <v>31</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,46 +749,49 @@
         <v>2101</v>
       </c>
       <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
         <v>300000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>230</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>55</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>27</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>90000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>15.2</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Executive</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>79</v>
       </c>
-      <c r="L6" t="n">
-        <v>40</v>
-      </c>
       <c r="M6" t="n">
-        <v>5.760438056125941</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
+        <v>5.78507871321013</v>
+      </c>
+      <c r="O6" t="n">
         <v>41</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -785,46 +805,49 @@
         <v>98102</v>
       </c>
       <c r="C7" t="n">
+        <v>62</v>
+      </c>
+      <c r="D7" t="n">
         <v>300000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>230</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>55</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>27</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>90000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>14.7</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Executive</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>70</v>
       </c>
-      <c r="L7" t="n">
-        <v>40</v>
-      </c>
       <c r="M7" t="n">
-        <v>4.48186173853525</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>4.506502395619439</v>
       </c>
       <c r="O7" t="n">
+        <v>40</v>
+      </c>
+      <c r="P7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -838,46 +861,49 @@
         <v>60605</v>
       </c>
       <c r="C8" t="n">
+        <v>63</v>
+      </c>
+      <c r="D8" t="n">
         <v>97700</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>105</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>30</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>17</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>7767</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>5.9</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>73</v>
       </c>
-      <c r="L8" t="n">
-        <v>40</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.850787132101301</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
+        <v>1.875427789185489</v>
+      </c>
+      <c r="O8" t="n">
         <v>33</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -891,46 +917,49 @@
         <v>10005</v>
       </c>
       <c r="C9" t="n">
+        <v>64</v>
+      </c>
+      <c r="D9" t="n">
         <v>89300</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>105</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>30</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>17</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>5849</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>3.1</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>113</v>
       </c>
-      <c r="L9" t="n">
-        <v>40</v>
-      </c>
       <c r="M9" t="n">
-        <v>2.140999315537303</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
+        <v>2.165639972621492</v>
+      </c>
+      <c r="O9" t="n">
         <v>26</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -944,46 +973,49 @@
         <v>10005</v>
       </c>
       <c r="C10" t="n">
+        <v>65</v>
+      </c>
+      <c r="D10" t="n">
         <v>89600</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>105</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>30</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>17</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>5914</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>3.2</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>93</v>
       </c>
-      <c r="L10" t="n">
-        <v>40</v>
-      </c>
       <c r="M10" t="n">
-        <v>2.239561943874059</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
+        <v>2.264202600958248</v>
+      </c>
+      <c r="O10" t="n">
         <v>34</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,46 +1029,49 @@
         <v>10002</v>
       </c>
       <c r="C11" t="n">
+        <v>66</v>
+      </c>
+      <c r="D11" t="n">
         <v>129450</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>130</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>35</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>19</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>16893</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>2.1</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Customer Support</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>80</v>
       </c>
-      <c r="L11" t="n">
-        <v>40</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.486652977412731</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
+        <v>1.51129363449692</v>
+      </c>
+      <c r="O11" t="n">
         <v>29</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,46 +1085,49 @@
         <v>10003</v>
       </c>
       <c r="C12" t="n">
+        <v>67</v>
+      </c>
+      <c r="D12" t="n">
         <v>93400</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>105</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>30</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>17</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>5978</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>2.8</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Customer Support</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>141</v>
       </c>
-      <c r="L12" t="n">
-        <v>40</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.779603011635866</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
+        <v>1.804243668720055</v>
+      </c>
+      <c r="O12" t="n">
         <v>27</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1103,46 +1141,49 @@
         <v>94104</v>
       </c>
       <c r="C13" t="n">
+        <v>68</v>
+      </c>
+      <c r="D13" t="n">
         <v>84500</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>105</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>30</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>17</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>5831</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>3.8</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>81</v>
       </c>
-      <c r="L13" t="n">
-        <v>40</v>
-      </c>
       <c r="M13" t="n">
-        <v>2.945927446954141</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
+        <v>2.97056810403833</v>
+      </c>
+      <c r="O13" t="n">
         <v>31</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1156,46 +1197,49 @@
         <v>94104</v>
       </c>
       <c r="C14" t="n">
+        <v>69</v>
+      </c>
+      <c r="D14" t="n">
         <v>80750</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>105</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>30</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>17</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>4966</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>2.3</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>101</v>
       </c>
-      <c r="L14" t="n">
-        <v>40</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.806981519507187</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
+        <v>1.831622176591376</v>
+      </c>
+      <c r="O14" t="n">
         <v>31</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1209,46 +1253,49 @@
         <v>94102</v>
       </c>
       <c r="C15" t="n">
+        <v>70</v>
+      </c>
+      <c r="D15" t="n">
         <v>83000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>105</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>30</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>17</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>5478</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>3.2</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>129</v>
       </c>
-      <c r="L15" t="n">
-        <v>40</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.95482546201232</v>
+        <v>40</v>
       </c>
       <c r="N15" t="n">
+        <v>1.979466119096509</v>
+      </c>
+      <c r="O15" t="n">
         <v>34</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1262,46 +1309,49 @@
         <v>94102</v>
       </c>
       <c r="C16" t="n">
+        <v>71</v>
+      </c>
+      <c r="D16" t="n">
         <v>91400</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>105</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>30</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>17</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>6307</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>3.8</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>139</v>
       </c>
-      <c r="L16" t="n">
-        <v>40</v>
-      </c>
       <c r="M16" t="n">
-        <v>2.387405886379192</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
+        <v>2.412046543463381</v>
+      </c>
+      <c r="O16" t="n">
         <v>26</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1315,46 +1365,49 @@
         <v>78701</v>
       </c>
       <c r="C17" t="n">
+        <v>72</v>
+      </c>
+      <c r="D17" t="n">
         <v>215200</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>180</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>45</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>23</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>48635</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>69</v>
       </c>
-      <c r="L17" t="n">
-        <v>40</v>
-      </c>
       <c r="M17" t="n">
-        <v>3.030800821355236</v>
+        <v>40</v>
       </c>
       <c r="N17" t="n">
+        <v>3.055441478439425</v>
+      </c>
+      <c r="O17" t="n">
         <v>34</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1368,46 +1421,49 @@
         <v>78702</v>
       </c>
       <c r="C18" t="n">
+        <v>73</v>
+      </c>
+      <c r="D18" t="n">
         <v>217600</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>180</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>45</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>23</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>49613</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>9.6</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>150</v>
       </c>
-      <c r="L18" t="n">
-        <v>40</v>
-      </c>
       <c r="M18" t="n">
-        <v>5.352498288843258</v>
+        <v>40</v>
       </c>
       <c r="N18" t="n">
+        <v>5.377138945927447</v>
+      </c>
+      <c r="O18" t="n">
         <v>33</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1421,46 +1477,49 @@
         <v>94112</v>
       </c>
       <c r="C19" t="n">
+        <v>74</v>
+      </c>
+      <c r="D19" t="n">
         <v>92600</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>105</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>30</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>17</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>6575</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>4.2</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>78</v>
       </c>
-      <c r="L19" t="n">
-        <v>40</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.713894592744695</v>
+        <v>40</v>
       </c>
       <c r="N19" t="n">
+        <v>1.738535249828884</v>
+      </c>
+      <c r="O19" t="n">
         <v>28</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,46 +1533,49 @@
         <v>78702</v>
       </c>
       <c r="C20" t="n">
+        <v>75</v>
+      </c>
+      <c r="D20" t="n">
         <v>218200</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>180</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>45</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>23</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>49859</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>110</v>
       </c>
-      <c r="L20" t="n">
-        <v>40</v>
-      </c>
       <c r="M20" t="n">
-        <v>4.785763175906913</v>
+        <v>40</v>
       </c>
       <c r="N20" t="n">
+        <v>4.810403832991102</v>
+      </c>
+      <c r="O20" t="n">
         <v>38</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1527,46 +1589,49 @@
         <v>2108</v>
       </c>
       <c r="C21" t="n">
+        <v>76</v>
+      </c>
+      <c r="D21" t="n">
         <v>220000</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>180</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>45</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>23</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>50600</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>11.5</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>76</v>
       </c>
-      <c r="L21" t="n">
-        <v>40</v>
-      </c>
       <c r="M21" t="n">
-        <v>5.44558521560575</v>
+        <v>40</v>
       </c>
       <c r="N21" t="n">
+        <v>5.470225872689938</v>
+      </c>
+      <c r="O21" t="n">
         <v>33</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,46 +1645,49 @@
         <v>98106</v>
       </c>
       <c r="C22" t="n">
+        <v>77</v>
+      </c>
+      <c r="D22" t="n">
         <v>211000</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>180</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>45</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>23</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>46948</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>8.5</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>64</v>
       </c>
-      <c r="L22" t="n">
-        <v>40</v>
-      </c>
       <c r="M22" t="n">
-        <v>5.204654346338125</v>
+        <v>40</v>
       </c>
       <c r="N22" t="n">
+        <v>5.229295003422314</v>
+      </c>
+      <c r="O22" t="n">
         <v>36</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1633,46 +1701,49 @@
         <v>10010</v>
       </c>
       <c r="C23" t="n">
+        <v>78</v>
+      </c>
+      <c r="D23" t="n">
         <v>213400</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>180</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>45</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>23</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>47908</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>8.9</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>138</v>
       </c>
-      <c r="L23" t="n">
-        <v>40</v>
-      </c>
       <c r="M23" t="n">
-        <v>4.952772073921971</v>
+        <v>40</v>
       </c>
       <c r="N23" t="n">
+        <v>4.97741273100616</v>
+      </c>
+      <c r="O23" t="n">
         <v>38</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1686,46 +1757,49 @@
         <v>94104</v>
       </c>
       <c r="C24" t="n">
+        <v>79</v>
+      </c>
+      <c r="D24" t="n">
         <v>155100</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>155</v>
       </c>
-      <c r="E24" t="n">
-        <v>40</v>
-      </c>
       <c r="F24" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" t="n">
         <v>21</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>24661</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>7.8</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>71</v>
       </c>
-      <c r="L24" t="n">
-        <v>40</v>
-      </c>
       <c r="M24" t="n">
-        <v>3.786447638603696</v>
+        <v>40</v>
       </c>
       <c r="N24" t="n">
+        <v>3.811088295687885</v>
+      </c>
+      <c r="O24" t="n">
         <v>34</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1739,46 +1813,49 @@
         <v>60605</v>
       </c>
       <c r="C25" t="n">
+        <v>80</v>
+      </c>
+      <c r="D25" t="n">
         <v>80750</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>105</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>30</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>17</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>4966</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>2.3</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>63</v>
       </c>
-      <c r="L25" t="n">
-        <v>40</v>
-      </c>
       <c r="M25" t="n">
-        <v>2.360027378507871</v>
+        <v>40</v>
       </c>
       <c r="N25" t="n">
+        <v>2.38466803559206</v>
+      </c>
+      <c r="O25" t="n">
         <v>29</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1792,46 +1869,49 @@
         <v>60601</v>
       </c>
       <c r="C26" t="n">
+        <v>81</v>
+      </c>
+      <c r="D26" t="n">
         <v>84750</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>105</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>30</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>17</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>5890</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>3.9</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>109</v>
       </c>
-      <c r="L26" t="n">
-        <v>40</v>
-      </c>
       <c r="M26" t="n">
-        <v>2.603696098562629</v>
+        <v>40</v>
       </c>
       <c r="N26" t="n">
+        <v>2.628336755646817</v>
+      </c>
+      <c r="O26" t="n">
         <v>31</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1845,46 +1925,49 @@
         <v>60605</v>
       </c>
       <c r="C27" t="n">
+        <v>82</v>
+      </c>
+      <c r="D27" t="n">
         <v>84750</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>105</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>30</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>17</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>5890</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>3.9</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>123</v>
       </c>
-      <c r="L27" t="n">
-        <v>40</v>
-      </c>
       <c r="M27" t="n">
-        <v>2.33264887063655</v>
+        <v>40</v>
       </c>
       <c r="N27" t="n">
+        <v>2.357289527720739</v>
+      </c>
+      <c r="O27" t="n">
         <v>27</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1898,46 +1981,49 @@
         <v>60601</v>
       </c>
       <c r="C28" t="n">
+        <v>83</v>
+      </c>
+      <c r="D28" t="n">
         <v>83000</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>105</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>30</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>17</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>5478</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>3.2</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>149</v>
       </c>
-      <c r="L28" t="n">
-        <v>40</v>
-      </c>
       <c r="M28" t="n">
-        <v>2.113620807665982</v>
+        <v>40</v>
       </c>
       <c r="N28" t="n">
+        <v>2.138261464750171</v>
+      </c>
+      <c r="O28" t="n">
         <v>26</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1951,46 +2037,49 @@
         <v>60605</v>
       </c>
       <c r="C29" t="n">
+        <v>84</v>
+      </c>
+      <c r="D29" t="n">
         <v>84000</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>105</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>30</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>17</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>5712</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>3.6</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>133</v>
       </c>
-      <c r="L29" t="n">
-        <v>40</v>
-      </c>
       <c r="M29" t="n">
-        <v>2.04517453798768</v>
+        <v>40</v>
       </c>
       <c r="N29" t="n">
+        <v>2.069815195071869</v>
+      </c>
+      <c r="O29" t="n">
         <v>28</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2004,46 +2093,49 @@
         <v>2107</v>
       </c>
       <c r="C30" t="n">
+        <v>85</v>
+      </c>
+      <c r="D30" t="n">
         <v>92300</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>105</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>30</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>17</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>6507</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>4.1</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>65</v>
       </c>
-      <c r="L30" t="n">
-        <v>40</v>
-      </c>
       <c r="M30" t="n">
-        <v>2.652977412731006</v>
+        <v>40</v>
       </c>
       <c r="N30" t="n">
+        <v>2.677618069815195</v>
+      </c>
+      <c r="O30" t="n">
         <v>33</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2057,46 +2149,49 @@
         <v>2107</v>
       </c>
       <c r="C31" t="n">
+        <v>86</v>
+      </c>
+      <c r="D31" t="n">
         <v>93500</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>105</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>30</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>17</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>6779</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>4.5</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>105</v>
       </c>
-      <c r="L31" t="n">
-        <v>40</v>
-      </c>
       <c r="M31" t="n">
-        <v>2.822724161533197</v>
+        <v>40</v>
       </c>
       <c r="N31" t="n">
+        <v>2.847364818617385</v>
+      </c>
+      <c r="O31" t="n">
         <v>29</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,46 +2205,49 @@
         <v>2107</v>
       </c>
       <c r="C32" t="n">
+        <v>87</v>
+      </c>
+      <c r="D32" t="n">
         <v>93800</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>105</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>30</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>17</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>6847</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>4.6</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>125</v>
       </c>
-      <c r="L32" t="n">
-        <v>40</v>
-      </c>
       <c r="M32" t="n">
-        <v>3.011635865845312</v>
+        <v>40</v>
       </c>
       <c r="N32" t="n">
+        <v>3.0362765229295</v>
+      </c>
+      <c r="O32" t="n">
         <v>30</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2163,46 +2261,49 @@
         <v>2107</v>
       </c>
       <c r="C33" t="n">
+        <v>88</v>
+      </c>
+      <c r="D33" t="n">
         <v>65800</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>105</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>30</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>17</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>4244</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>2.9</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>95</v>
       </c>
-      <c r="L33" t="n">
-        <v>40</v>
-      </c>
       <c r="M33" t="n">
-        <v>1.949349760438056</v>
+        <v>40</v>
       </c>
       <c r="N33" t="n">
+        <v>1.973990417522245</v>
+      </c>
+      <c r="O33" t="n">
         <v>26</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2216,46 +2317,49 @@
         <v>2107</v>
       </c>
       <c r="C34" t="n">
+        <v>89</v>
+      </c>
+      <c r="D34" t="n">
         <v>69000</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>105</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>30</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>17</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>5003</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>4.5</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>145</v>
       </c>
-      <c r="L34" t="n">
-        <v>40</v>
-      </c>
       <c r="M34" t="n">
-        <v>2.685831622176591</v>
+        <v>40</v>
       </c>
       <c r="N34" t="n">
+        <v>2.71047227926078</v>
+      </c>
+      <c r="O34" t="n">
         <v>32</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2269,46 +2373,49 @@
         <v>2107</v>
       </c>
       <c r="C35" t="n">
+        <v>90</v>
+      </c>
+      <c r="D35" t="n">
         <v>141600</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>130</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>35</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>19</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>20390</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>4.8</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>115</v>
       </c>
-      <c r="L35" t="n">
-        <v>40</v>
-      </c>
       <c r="M35" t="n">
-        <v>3.200547570157426</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
+        <v>3.225188227241615</v>
+      </c>
+      <c r="O35" t="n">
         <v>30</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2322,46 +2429,49 @@
         <v>2107</v>
       </c>
       <c r="C36" t="n">
+        <v>91</v>
+      </c>
+      <c r="D36" t="n">
         <v>141600</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>130</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>35</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>19</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>20390</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>4.8</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>155</v>
       </c>
-      <c r="L36" t="n">
-        <v>40</v>
-      </c>
       <c r="M36" t="n">
-        <v>2.639288158795346</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
+        <v>2.663928815879534</v>
+      </c>
+      <c r="O36" t="n">
         <v>34</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2375,46 +2485,49 @@
         <v>2107</v>
       </c>
       <c r="C37" t="n">
+        <v>92</v>
+      </c>
+      <c r="D37" t="n">
         <v>99700</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>105</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>30</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>17</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>7428</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>4.9</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>135</v>
       </c>
-      <c r="L37" t="n">
-        <v>40</v>
-      </c>
       <c r="M37" t="n">
-        <v>3.260780287474333</v>
+        <v>40</v>
       </c>
       <c r="N37" t="n">
+        <v>3.285420944558521</v>
+      </c>
+      <c r="O37" t="n">
         <v>31</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2428,46 +2541,49 @@
         <v>94111</v>
       </c>
       <c r="C38" t="n">
+        <v>93</v>
+      </c>
+      <c r="D38" t="n">
         <v>78000</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>105</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>30</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>17</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>4368</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>1.2</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>157</v>
       </c>
-      <c r="L38" t="n">
-        <v>40</v>
-      </c>
       <c r="M38" t="n">
-        <v>1.125256673511294</v>
+        <v>40</v>
       </c>
       <c r="N38" t="n">
+        <v>1.149897330595482</v>
+      </c>
+      <c r="O38" t="n">
         <v>23</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2481,46 +2597,49 @@
         <v>94110</v>
       </c>
       <c r="C39" t="n">
+        <v>94</v>
+      </c>
+      <c r="D39" t="n">
         <v>64500</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>105</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>30</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>17</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>3806</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>1.8</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>66</v>
       </c>
-      <c r="L39" t="n">
-        <v>40</v>
-      </c>
       <c r="M39" t="n">
-        <v>1.28952772073922</v>
+        <v>40</v>
       </c>
       <c r="N39" t="n">
+        <v>1.314168377823409</v>
+      </c>
+      <c r="O39" t="n">
         <v>31</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2534,46 +2653,49 @@
         <v>94111</v>
       </c>
       <c r="C40" t="n">
+        <v>95</v>
+      </c>
+      <c r="D40" t="n">
         <v>64500</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>105</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>30</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>17</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>3806</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>1.8</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>87</v>
       </c>
-      <c r="L40" t="n">
-        <v>40</v>
-      </c>
       <c r="M40" t="n">
-        <v>1.347022587268994</v>
+        <v>40</v>
       </c>
       <c r="N40" t="n">
+        <v>1.371663244353183</v>
+      </c>
+      <c r="O40" t="n">
         <v>25</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2587,46 +2709,49 @@
         <v>78731</v>
       </c>
       <c r="C41" t="n">
+        <v>96</v>
+      </c>
+      <c r="D41" t="n">
         <v>64750</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>105</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>30</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>17</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>3853</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>1.9</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>127</v>
       </c>
-      <c r="L41" t="n">
-        <v>40</v>
-      </c>
       <c r="M41" t="n">
-        <v>1.388090349075975</v>
+        <v>40</v>
       </c>
       <c r="N41" t="n">
+        <v>1.412731006160164</v>
+      </c>
+      <c r="O41" t="n">
         <v>30</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2640,46 +2765,49 @@
         <v>94111</v>
       </c>
       <c r="C42" t="n">
+        <v>97</v>
+      </c>
+      <c r="D42" t="n">
         <v>63750</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>105</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>30</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>17</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>3666</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>1.5</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>97</v>
       </c>
-      <c r="L42" t="n">
-        <v>40</v>
-      </c>
       <c r="M42" t="n">
-        <v>1.223819301848049</v>
+        <v>40</v>
       </c>
       <c r="N42" t="n">
+        <v>1.248459958932238</v>
+      </c>
+      <c r="O42" t="n">
         <v>26</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2693,46 +2821,49 @@
         <v>94111</v>
       </c>
       <c r="C43" t="n">
+        <v>98</v>
+      </c>
+      <c r="D43" t="n">
         <v>63750</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>105</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>30</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>17</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>3666</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>1.5</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>137</v>
       </c>
-      <c r="L43" t="n">
-        <v>40</v>
-      </c>
       <c r="M43" t="n">
-        <v>1.240246406570842</v>
+        <v>40</v>
       </c>
       <c r="N43" t="n">
+        <v>1.264887063655031</v>
+      </c>
+      <c r="O43" t="n">
         <v>30</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2746,46 +2877,49 @@
         <v>78731</v>
       </c>
       <c r="C44" t="n">
+        <v>99</v>
+      </c>
+      <c r="D44" t="n">
         <v>63000</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>105</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>30</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>17</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>3528</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>1.2</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>107</v>
       </c>
-      <c r="L44" t="n">
-        <v>40</v>
-      </c>
       <c r="M44" t="n">
-        <v>1.360711841204654</v>
+        <v>40</v>
       </c>
       <c r="N44" t="n">
+        <v>1.385352498288843</v>
+      </c>
+      <c r="O44" t="n">
         <v>28</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2799,46 +2933,49 @@
         <v>94108</v>
       </c>
       <c r="C45" t="n">
+        <v>100</v>
+      </c>
+      <c r="D45" t="n">
         <v>146600</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>130</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>35</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>19</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>17519</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>7.9</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>144</v>
       </c>
-      <c r="L45" t="n">
-        <v>40</v>
-      </c>
       <c r="M45" t="n">
-        <v>4.199863107460644</v>
+        <v>40</v>
       </c>
       <c r="N45" t="n">
+        <v>4.224503764544832</v>
+      </c>
+      <c r="O45" t="n">
         <v>34</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,46 +2989,49 @@
         <v>94112</v>
       </c>
       <c r="C46" t="n">
+        <v>101</v>
+      </c>
+      <c r="D46" t="n">
         <v>146200</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>130</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>35</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>19</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>17398</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>7.8</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>98</v>
       </c>
-      <c r="L46" t="n">
-        <v>40</v>
-      </c>
       <c r="M46" t="n">
-        <v>3.671457905544148</v>
+        <v>40</v>
       </c>
       <c r="N46" t="n">
+        <v>3.696098562628337</v>
+      </c>
+      <c r="O46" t="n">
         <v>33</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2905,46 +3045,49 @@
         <v>98106</v>
       </c>
       <c r="C47" t="n">
+        <v>102</v>
+      </c>
+      <c r="D47" t="n">
         <v>146600</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>130</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>35</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>19</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>17519</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>7.9</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>114</v>
       </c>
-      <c r="L47" t="n">
-        <v>40</v>
-      </c>
       <c r="M47" t="n">
-        <v>3.926078028747433</v>
+        <v>40</v>
       </c>
       <c r="N47" t="n">
+        <v>3.950718685831622</v>
+      </c>
+      <c r="O47" t="n">
         <v>31</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2958,46 +3101,49 @@
         <v>10010</v>
       </c>
       <c r="C48" t="n">
+        <v>103</v>
+      </c>
+      <c r="D48" t="n">
         <v>153750</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>155</v>
       </c>
-      <c r="E48" t="n">
-        <v>40</v>
-      </c>
       <c r="F48" t="n">
+        <v>40</v>
+      </c>
+      <c r="G48" t="n">
         <v>21</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>18066</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>7.5</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>108</v>
       </c>
-      <c r="L48" t="n">
-        <v>40</v>
-      </c>
       <c r="M48" t="n">
-        <v>4.238193018480493</v>
+        <v>40</v>
       </c>
       <c r="N48" t="n">
+        <v>4.262833675564682</v>
+      </c>
+      <c r="O48" t="n">
         <v>34</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,46 +3157,49 @@
         <v>94108</v>
       </c>
       <c r="C49" t="n">
+        <v>104</v>
+      </c>
+      <c r="D49" t="n">
         <v>145400</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>130</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>35</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>19</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>17157</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>7.6</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>154</v>
       </c>
-      <c r="L49" t="n">
-        <v>40</v>
-      </c>
       <c r="M49" t="n">
-        <v>3.84394250513347</v>
+        <v>40</v>
       </c>
       <c r="N49" t="n">
+        <v>3.868583162217659</v>
+      </c>
+      <c r="O49" t="n">
         <v>36</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3064,46 +3213,49 @@
         <v>98106</v>
       </c>
       <c r="C50" t="n">
+        <v>105</v>
+      </c>
+      <c r="D50" t="n">
         <v>144200</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>130</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>35</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>19</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>16799</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>7.3</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>124</v>
       </c>
-      <c r="L50" t="n">
-        <v>40</v>
-      </c>
       <c r="M50" t="n">
-        <v>3.780971937029432</v>
+        <v>40</v>
       </c>
       <c r="N50" t="n">
+        <v>3.805612594113621</v>
+      </c>
+      <c r="O50" t="n">
         <v>32</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3117,46 +3269,49 @@
         <v>78704</v>
       </c>
       <c r="C51" t="n">
+        <v>106</v>
+      </c>
+      <c r="D51" t="n">
         <v>141000</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>130</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>35</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>19</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>15863</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>6.5</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>92</v>
       </c>
-      <c r="L51" t="n">
-        <v>40</v>
-      </c>
       <c r="M51" t="n">
-        <v>4.191649555099247</v>
+        <v>40</v>
       </c>
       <c r="N51" t="n">
+        <v>4.216290212183436</v>
+      </c>
+      <c r="O51" t="n">
         <v>36</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3170,46 +3325,49 @@
         <v>78712</v>
       </c>
       <c r="C52" t="n">
+        <v>107</v>
+      </c>
+      <c r="D52" t="n">
         <v>145800</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>130</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>35</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>19</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>17277</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>7.7</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>134</v>
       </c>
-      <c r="L52" t="n">
-        <v>40</v>
-      </c>
       <c r="M52" t="n">
-        <v>4.139630390143737</v>
+        <v>40</v>
       </c>
       <c r="N52" t="n">
+        <v>4.164271047227926</v>
+      </c>
+      <c r="O52" t="n">
         <v>33</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3223,46 +3381,49 @@
         <v>10005</v>
       </c>
       <c r="C53" t="n">
+        <v>108</v>
+      </c>
+      <c r="D53" t="n">
         <v>66800</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>105</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>30</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>17</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>4476</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>3.4</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>143</v>
       </c>
-      <c r="L53" t="n">
-        <v>40</v>
-      </c>
       <c r="M53" t="n">
-        <v>1.845311430527036</v>
+        <v>40</v>
       </c>
       <c r="N53" t="n">
+        <v>1.869952087611225</v>
+      </c>
+      <c r="O53" t="n">
         <v>30</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3276,46 +3437,49 @@
         <v>10003</v>
       </c>
       <c r="C54" t="n">
+        <v>109</v>
+      </c>
+      <c r="D54" t="n">
         <v>136650</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>130</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>35</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>19</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>18926</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>3.7</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>61</v>
       </c>
-      <c r="L54" t="n">
-        <v>40</v>
-      </c>
       <c r="M54" t="n">
-        <v>2.094455852156058</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
+        <v>2.119096509240246</v>
+      </c>
+      <c r="O54" t="n">
         <v>28</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3329,46 +3493,49 @@
         <v>60601</v>
       </c>
       <c r="C55" t="n">
+        <v>110</v>
+      </c>
+      <c r="D55" t="n">
         <v>92500</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>105</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>30</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>17</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>5781</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>2.5</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>89</v>
       </c>
-      <c r="L55" t="n">
-        <v>40</v>
-      </c>
       <c r="M55" t="n">
-        <v>1.555099247091034</v>
+        <v>40</v>
       </c>
       <c r="N55" t="n">
+        <v>1.579739904175222</v>
+      </c>
+      <c r="O55" t="n">
         <v>28</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3382,46 +3549,49 @@
         <v>10005</v>
       </c>
       <c r="C56" t="n">
+        <v>111</v>
+      </c>
+      <c r="D56" t="n">
         <v>96100</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>105</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>30</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>17</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>6583</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>3.7</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>103</v>
       </c>
-      <c r="L56" t="n">
-        <v>40</v>
-      </c>
       <c r="M56" t="n">
-        <v>2.209445585215606</v>
+        <v>40</v>
       </c>
       <c r="N56" t="n">
+        <v>2.234086242299794</v>
+      </c>
+      <c r="O56" t="n">
         <v>26</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3435,46 +3605,49 @@
         <v>98101</v>
       </c>
       <c r="C57" t="n">
+        <v>112</v>
+      </c>
+      <c r="D57" t="n">
         <v>85750</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>105</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>30</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>17</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>6131</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>4.3</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>99</v>
       </c>
-      <c r="L57" t="n">
-        <v>40</v>
-      </c>
       <c r="M57" t="n">
-        <v>2.485968514715948</v>
+        <v>40</v>
       </c>
       <c r="N57" t="n">
+        <v>2.510609171800137</v>
+      </c>
+      <c r="O57" t="n">
         <v>31</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,46 +3661,49 @@
         <v>98101</v>
       </c>
       <c r="C58" t="n">
+        <v>113</v>
+      </c>
+      <c r="D58" t="n">
         <v>84000</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>105</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>30</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>17</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>5712</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>3.6</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>159</v>
       </c>
-      <c r="L58" t="n">
-        <v>40</v>
-      </c>
       <c r="M58" t="n">
-        <v>2.179329226557153</v>
+        <v>40</v>
       </c>
       <c r="N58" t="n">
+        <v>2.203969883641342</v>
+      </c>
+      <c r="O58" t="n">
         <v>27</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3541,46 +3717,49 @@
         <v>98101</v>
       </c>
       <c r="C59" t="n">
+        <v>114</v>
+      </c>
+      <c r="D59" t="n">
         <v>66800</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>105</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>30</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>17</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>4476</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>3.4</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>119</v>
       </c>
-      <c r="L59" t="n">
-        <v>40</v>
-      </c>
       <c r="M59" t="n">
-        <v>1.686516084873374</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
+        <v>1.711156741957563</v>
+      </c>
+      <c r="O59" t="n">
         <v>33</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3594,46 +3773,49 @@
         <v>98106</v>
       </c>
       <c r="C60" t="n">
+        <v>115</v>
+      </c>
+      <c r="D60" t="n">
         <v>189000</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>155</v>
       </c>
-      <c r="E60" t="n">
-        <v>40</v>
-      </c>
       <c r="F60" t="n">
+        <v>40</v>
+      </c>
+      <c r="G60" t="n">
         <v>21</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>37611</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>84</v>
       </c>
-      <c r="L60" t="n">
-        <v>40</v>
-      </c>
       <c r="M60" t="n">
-        <v>1.817932922655715</v>
+        <v>40</v>
       </c>
       <c r="N60" t="n">
+        <v>1.842573579739904</v>
+      </c>
+      <c r="O60" t="n">
         <v>39</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3647,46 +3829,49 @@
         <v>98102</v>
       </c>
       <c r="C61" t="n">
+        <v>116</v>
+      </c>
+      <c r="D61" t="n">
         <v>190000</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>155</v>
       </c>
-      <c r="E61" t="n">
-        <v>40</v>
-      </c>
       <c r="F61" t="n">
+        <v>40</v>
+      </c>
+      <c r="G61" t="n">
         <v>21</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>38000</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>10.1</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>140</v>
       </c>
-      <c r="L61" t="n">
-        <v>40</v>
-      </c>
       <c r="M61" t="n">
-        <v>5.659137577002054</v>
+        <v>40</v>
       </c>
       <c r="N61" t="n">
+        <v>5.683778234086242</v>
+      </c>
+      <c r="O61" t="n">
         <v>34</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3700,46 +3885,49 @@
         <v>78704</v>
       </c>
       <c r="C62" t="n">
+        <v>117</v>
+      </c>
+      <c r="D62" t="n">
         <v>179500</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>155</v>
       </c>
-      <c r="E62" t="n">
-        <v>40</v>
-      </c>
       <c r="F62" t="n">
+        <v>40</v>
+      </c>
+      <c r="G62" t="n">
         <v>21</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>34015</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>7.9</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>62</v>
       </c>
-      <c r="L62" t="n">
-        <v>40</v>
-      </c>
       <c r="M62" t="n">
-        <v>3.540041067761807</v>
+        <v>40</v>
       </c>
       <c r="N62" t="n">
+        <v>3.564681724845996</v>
+      </c>
+      <c r="O62" t="n">
         <v>33</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3753,46 +3941,49 @@
         <v>10010</v>
       </c>
       <c r="C63" t="n">
+        <v>118</v>
+      </c>
+      <c r="D63" t="n">
         <v>183000</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>155</v>
       </c>
-      <c r="E63" t="n">
-        <v>40</v>
-      </c>
       <c r="F63" t="n">
+        <v>40</v>
+      </c>
+      <c r="G63" t="n">
         <v>21</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>29829</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>8.6</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>118</v>
       </c>
-      <c r="L63" t="n">
-        <v>40</v>
-      </c>
       <c r="M63" t="n">
-        <v>4.470910335386721</v>
+        <v>40</v>
       </c>
       <c r="N63" t="n">
+        <v>4.495550992470911</v>
+      </c>
+      <c r="O63" t="n">
         <v>37</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3806,46 +3997,49 @@
         <v>98102</v>
       </c>
       <c r="C64" t="n">
+        <v>119</v>
+      </c>
+      <c r="D64" t="n">
         <v>190000</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>155</v>
       </c>
-      <c r="E64" t="n">
-        <v>40</v>
-      </c>
       <c r="F64" t="n">
+        <v>40</v>
+      </c>
+      <c r="G64" t="n">
         <v>21</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>38000</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>10.2</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>100</v>
       </c>
-      <c r="L64" t="n">
-        <v>40</v>
-      </c>
       <c r="M64" t="n">
-        <v>5.032169746748802</v>
+        <v>40</v>
       </c>
       <c r="N64" t="n">
+        <v>5.056810403832992</v>
+      </c>
+      <c r="O64" t="n">
         <v>38</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,46 +4053,49 @@
         <v>78704</v>
       </c>
       <c r="C65" t="n">
+        <v>120</v>
+      </c>
+      <c r="D65" t="n">
         <v>97700</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>105</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>30</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>17</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>7767</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>5.9</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>102</v>
       </c>
-      <c r="L65" t="n">
-        <v>40</v>
-      </c>
       <c r="M65" t="n">
-        <v>3.337440109514032</v>
+        <v>40</v>
       </c>
       <c r="N65" t="n">
+        <v>3.36208076659822</v>
+      </c>
+      <c r="O65" t="n">
         <v>35</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3912,46 +4109,49 @@
         <v>10010</v>
       </c>
       <c r="C66" t="n">
+        <v>121</v>
+      </c>
+      <c r="D66" t="n">
         <v>209200</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>180</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>45</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>23</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>46233</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>128</v>
       </c>
-      <c r="L66" t="n">
-        <v>40</v>
-      </c>
       <c r="M66" t="n">
-        <v>4.826830937713894</v>
+        <v>40</v>
       </c>
       <c r="N66" t="n">
+        <v>4.851471594798084</v>
+      </c>
+      <c r="O66" t="n">
         <v>38</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3965,46 +4165,49 @@
         <v>10010</v>
       </c>
       <c r="C67" t="n">
+        <v>122</v>
+      </c>
+      <c r="D67" t="n">
         <v>147400</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>130</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>35</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>19</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>17762</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>8.1</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>158</v>
       </c>
-      <c r="L67" t="n">
-        <v>40</v>
-      </c>
       <c r="M67" t="n">
-        <v>5.048596851471594</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
+        <v>5.073237508555784</v>
+      </c>
+      <c r="O67" t="n">
         <v>31</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,46 +4221,49 @@
         <v>10004</v>
       </c>
       <c r="C68" t="n">
+        <v>123</v>
+      </c>
+      <c r="D68" t="n">
         <v>135750</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>130</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>35</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>19</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>18666</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>3.5</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>72</v>
       </c>
-      <c r="L68" t="n">
-        <v>40</v>
-      </c>
       <c r="M68" t="n">
-        <v>2.55441478439425</v>
+        <v>40</v>
       </c>
       <c r="N68" t="n">
+        <v>2.579055441478439</v>
+      </c>
+      <c r="O68" t="n">
         <v>30</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4071,46 +4277,49 @@
         <v>10005</v>
       </c>
       <c r="C69" t="n">
+        <v>124</v>
+      </c>
+      <c r="D69" t="n">
         <v>145200</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>130</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>35</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>19</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>21490</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>5.6</v>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>83</v>
       </c>
-      <c r="L69" t="n">
-        <v>40</v>
-      </c>
       <c r="M69" t="n">
-        <v>2.620123203285421</v>
+        <v>40</v>
       </c>
       <c r="N69" t="n">
+        <v>2.64476386036961</v>
+      </c>
+      <c r="O69" t="n">
         <v>35</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4124,46 +4333,49 @@
         <v>98103</v>
       </c>
       <c r="C70" t="n">
+        <v>125</v>
+      </c>
+      <c r="D70" t="n">
         <v>141150</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>130</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>35</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>19</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>20255</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>4.7</v>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>91</v>
       </c>
-      <c r="L70" t="n">
-        <v>40</v>
-      </c>
       <c r="M70" t="n">
-        <v>2.759753593429158</v>
+        <v>40</v>
       </c>
       <c r="N70" t="n">
+        <v>2.784394250513347</v>
+      </c>
+      <c r="O70" t="n">
         <v>33</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4177,46 +4389,49 @@
         <v>90010</v>
       </c>
       <c r="C71" t="n">
+        <v>126</v>
+      </c>
+      <c r="D71" t="n">
         <v>209800</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>180</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>45</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>23</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>46471</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>77</v>
       </c>
-      <c r="L71" t="n">
-        <v>40</v>
-      </c>
       <c r="M71" t="n">
-        <v>3.200547570157426</v>
+        <v>40</v>
       </c>
       <c r="N71" t="n">
+        <v>3.225188227241615</v>
+      </c>
+      <c r="O71" t="n">
         <v>31</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,46 +4445,49 @@
         <v>90008</v>
       </c>
       <c r="C72" t="n">
+        <v>127</v>
+      </c>
+      <c r="D72" t="n">
         <v>97100</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>105</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>30</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>17</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>7622</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>5.7</v>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>96</v>
       </c>
-      <c r="L72" t="n">
-        <v>40</v>
-      </c>
       <c r="M72" t="n">
-        <v>3.34839151266256</v>
+        <v>40</v>
       </c>
       <c r="N72" t="n">
-        <v>29</v>
+        <v>3.373032169746749</v>
       </c>
       <c r="O72" t="n">
+        <v>30</v>
+      </c>
+      <c r="P72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4283,46 +4501,49 @@
         <v>90008</v>
       </c>
       <c r="C73" t="n">
+        <v>128</v>
+      </c>
+      <c r="D73" t="n">
         <v>135200</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>130</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>35</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>19</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>15075</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>6.3</v>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>116</v>
       </c>
-      <c r="L73" t="n">
-        <v>40</v>
-      </c>
       <c r="M73" t="n">
-        <v>3.575633127994524</v>
+        <v>40</v>
       </c>
       <c r="N73" t="n">
+        <v>3.600273785078713</v>
+      </c>
+      <c r="O73" t="n">
         <v>33</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4336,46 +4557,49 @@
         <v>90008</v>
       </c>
       <c r="C74" t="n">
+        <v>129</v>
+      </c>
+      <c r="D74" t="n">
         <v>136000</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>130</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>35</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>19</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>15300</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>6.5</v>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>156</v>
       </c>
-      <c r="L74" t="n">
-        <v>40</v>
-      </c>
       <c r="M74" t="n">
-        <v>3.770020533880904</v>
+        <v>40</v>
       </c>
       <c r="N74" t="n">
+        <v>3.794661190965092</v>
+      </c>
+      <c r="O74" t="n">
         <v>36</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4389,46 +4613,49 @@
         <v>90011</v>
       </c>
       <c r="C75" t="n">
+        <v>130</v>
+      </c>
+      <c r="D75" t="n">
         <v>136000</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>130</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>35</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>19</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>15300</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>6.5</v>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>68</v>
       </c>
-      <c r="L75" t="n">
-        <v>40</v>
-      </c>
       <c r="M75" t="n">
-        <v>5.577002053388091</v>
+        <v>40</v>
       </c>
       <c r="N75" t="n">
+        <v>5.601642710472279</v>
+      </c>
+      <c r="O75" t="n">
         <v>30</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,46 +4669,49 @@
         <v>90008</v>
       </c>
       <c r="C76" t="n">
+        <v>131</v>
+      </c>
+      <c r="D76" t="n">
         <v>135200</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>130</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>35</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>19</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>15075</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>6.3</v>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>136</v>
       </c>
-      <c r="L76" t="n">
-        <v>40</v>
-      </c>
       <c r="M76" t="n">
-        <v>3.854893908281999</v>
+        <v>40</v>
       </c>
       <c r="N76" t="n">
+        <v>3.879534565366188</v>
+      </c>
+      <c r="O76" t="n">
         <v>34</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4495,46 +4725,49 @@
         <v>60604</v>
       </c>
       <c r="C77" t="n">
+        <v>132</v>
+      </c>
+      <c r="D77" t="n">
         <v>131600</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>130</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>35</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>19</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>14081</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>5.4</v>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>112</v>
       </c>
-      <c r="L77" t="n">
-        <v>40</v>
-      </c>
       <c r="M77" t="n">
-        <v>2.513347022587269</v>
+        <v>40</v>
       </c>
       <c r="N77" t="n">
+        <v>2.537987679671458</v>
+      </c>
+      <c r="O77" t="n">
         <v>27</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4548,46 +4781,49 @@
         <v>10004</v>
       </c>
       <c r="C78" t="n">
+        <v>133</v>
+      </c>
+      <c r="D78" t="n">
         <v>130400</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>130</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>35</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>19</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>13757</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>5.1</v>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>132</v>
       </c>
-      <c r="L78" t="n">
-        <v>40</v>
-      </c>
       <c r="M78" t="n">
-        <v>2.759753593429158</v>
+        <v>40</v>
       </c>
       <c r="N78" t="n">
+        <v>2.784394250513347</v>
+      </c>
+      <c r="O78" t="n">
         <v>29</v>
       </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4601,46 +4837,49 @@
         <v>94108</v>
       </c>
       <c r="C79" t="n">
+        <v>134</v>
+      </c>
+      <c r="D79" t="n">
         <v>143600</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>130</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>35</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>19</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>17519</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>8.4</v>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>94</v>
       </c>
-      <c r="L79" t="n">
-        <v>40</v>
-      </c>
       <c r="M79" t="n">
-        <v>4.533880903490759</v>
+        <v>40</v>
       </c>
       <c r="N79" t="n">
+        <v>4.558521560574949</v>
+      </c>
+      <c r="O79" t="n">
         <v>31</v>
       </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4654,46 +4893,49 @@
         <v>60607</v>
       </c>
       <c r="C80" t="n">
+        <v>135</v>
+      </c>
+      <c r="D80" t="n">
         <v>134800</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>130</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>35</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>19</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>14963</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>6.2</v>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>75</v>
       </c>
-      <c r="L80" t="n">
-        <v>40</v>
-      </c>
       <c r="M80" t="n">
-        <v>4.021902806297057</v>
+        <v>40</v>
       </c>
       <c r="N80" t="n">
+        <v>4.046543463381246</v>
+      </c>
+      <c r="O80" t="n">
         <v>36</v>
       </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4707,46 +4949,49 @@
         <v>60602</v>
       </c>
       <c r="C81" t="n">
+        <v>136</v>
+      </c>
+      <c r="D81" t="n">
         <v>146400</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>130</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>35</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>19</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>18373</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>9.1</v>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>90</v>
       </c>
-      <c r="L81" t="n">
-        <v>40</v>
-      </c>
       <c r="M81" t="n">
-        <v>5.125256673511293</v>
+        <v>40</v>
       </c>
       <c r="N81" t="n">
+        <v>5.149897330595483</v>
+      </c>
+      <c r="O81" t="n">
         <v>36</v>
       </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,46 +5005,49 @@
         <v>2104</v>
       </c>
       <c r="C82" t="n">
+        <v>137</v>
+      </c>
+      <c r="D82" t="n">
         <v>139600</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>130</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>35</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>19</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>16333</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>7.4</v>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>82</v>
       </c>
-      <c r="L82" t="n">
-        <v>40</v>
-      </c>
       <c r="M82" t="n">
-        <v>4.238193018480493</v>
+        <v>40</v>
       </c>
       <c r="N82" t="n">
+        <v>4.262833675564682</v>
+      </c>
+      <c r="O82" t="n">
         <v>36</v>
       </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4813,46 +5061,49 @@
         <v>10004</v>
       </c>
       <c r="C83" t="n">
+        <v>138</v>
+      </c>
+      <c r="D83" t="n">
         <v>133200</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>130</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>35</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>19</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>14519</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>5.8</v>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>122</v>
       </c>
-      <c r="L83" t="n">
-        <v>40</v>
-      </c>
       <c r="M83" t="n">
-        <v>2.965092402464066</v>
+        <v>40</v>
       </c>
       <c r="N83" t="n">
+        <v>2.989733059548255</v>
+      </c>
+      <c r="O83" t="n">
         <v>28</v>
       </c>
-      <c r="O83" t="n">
+      <c r="P83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4866,46 +5117,49 @@
         <v>10004</v>
       </c>
       <c r="C84" t="n">
+        <v>139</v>
+      </c>
+      <c r="D84" t="n">
         <v>131600</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>130</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>35</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>19</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>14081</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>5.4</v>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>152</v>
       </c>
-      <c r="L84" t="n">
-        <v>40</v>
-      </c>
       <c r="M84" t="n">
-        <v>2.464065708418891</v>
+        <v>40</v>
       </c>
       <c r="N84" t="n">
+        <v>2.48870636550308</v>
+      </c>
+      <c r="O84" t="n">
         <v>32</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4919,46 +5173,49 @@
         <v>10010</v>
       </c>
       <c r="C85" t="n">
+        <v>140</v>
+      </c>
+      <c r="D85" t="n">
         <v>138800</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>130</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>35</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>19</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>16101</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>7.2</v>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>88</v>
       </c>
-      <c r="L85" t="n">
-        <v>40</v>
-      </c>
       <c r="M85" t="n">
-        <v>3.854893908281999</v>
+        <v>40</v>
       </c>
       <c r="N85" t="n">
+        <v>3.879534565366188</v>
+      </c>
+      <c r="O85" t="n">
         <v>32</v>
       </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4972,46 +5229,49 @@
         <v>98102</v>
       </c>
       <c r="C86" t="n">
+        <v>141</v>
+      </c>
+      <c r="D86" t="n">
         <v>147200</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>130</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>35</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>19</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>18621</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>130</v>
       </c>
-      <c r="L86" t="n">
-        <v>40</v>
-      </c>
       <c r="M86" t="n">
-        <v>5.27583846680356</v>
+        <v>40</v>
       </c>
       <c r="N86" t="n">
+        <v>5.300479123887748</v>
+      </c>
+      <c r="O86" t="n">
         <v>32</v>
       </c>
-      <c r="O86" t="n">
+      <c r="P86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5025,46 +5285,49 @@
         <v>90008</v>
       </c>
       <c r="C87" t="n">
+        <v>142</v>
+      </c>
+      <c r="D87" t="n">
         <v>134800</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>130</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>35</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>19</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>14963</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>6.2</v>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>146</v>
       </c>
-      <c r="L87" t="n">
-        <v>40</v>
-      </c>
       <c r="M87" t="n">
-        <v>4.043805612594114</v>
+        <v>40</v>
       </c>
       <c r="N87" t="n">
+        <v>4.068446269678303</v>
+      </c>
+      <c r="O87" t="n">
         <v>35</v>
       </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5078,46 +5341,49 @@
         <v>90008</v>
       </c>
       <c r="C88" t="n">
+        <v>143</v>
+      </c>
+      <c r="D88" t="n">
         <v>137200</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>130</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>35</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>19</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>15641</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>6.8</v>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>106</v>
       </c>
-      <c r="L88" t="n">
-        <v>40</v>
-      </c>
       <c r="M88" t="n">
-        <v>4.084873374401095</v>
+        <v>40</v>
       </c>
       <c r="N88" t="n">
+        <v>4.109514031485284</v>
+      </c>
+      <c r="O88" t="n">
         <v>32</v>
       </c>
-      <c r="O88" t="n">
+      <c r="P88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5131,46 +5397,49 @@
         <v>90008</v>
       </c>
       <c r="C89" t="n">
+        <v>144</v>
+      </c>
+      <c r="D89" t="n">
         <v>136800</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>130</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>35</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>19</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>15527</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>6.7</v>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>126</v>
       </c>
-      <c r="L89" t="n">
-        <v>40</v>
-      </c>
       <c r="M89" t="n">
-        <v>4.188911704312115</v>
+        <v>40</v>
       </c>
       <c r="N89" t="n">
+        <v>4.213552361396304</v>
+      </c>
+      <c r="O89" t="n">
         <v>33</v>
       </c>
-      <c r="O89" t="n">
+      <c r="P89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5184,46 +5453,49 @@
         <v>78704</v>
       </c>
       <c r="C90" t="n">
+        <v>145</v>
+      </c>
+      <c r="D90" t="n">
         <v>132800</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>130</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>35</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>19</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>14409</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>5.7</v>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>142</v>
       </c>
-      <c r="L90" t="n">
-        <v>40</v>
-      </c>
       <c r="M90" t="n">
-        <v>3.12662559890486</v>
+        <v>40</v>
       </c>
       <c r="N90" t="n">
+        <v>3.151266255989049</v>
+      </c>
+      <c r="O90" t="n">
         <v>31</v>
       </c>
-      <c r="O90" t="n">
+      <c r="P90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5237,46 +5509,49 @@
         <v>94109</v>
       </c>
       <c r="C91" t="n">
+        <v>146</v>
+      </c>
+      <c r="D91" t="n">
         <v>90500</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>105</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>30</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>17</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>6109</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>3.5</v>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>85</v>
       </c>
-      <c r="L91" t="n">
-        <v>40</v>
-      </c>
       <c r="M91" t="n">
-        <v>2.039698836413415</v>
+        <v>40</v>
       </c>
       <c r="N91" t="n">
+        <v>2.064339493497604</v>
+      </c>
+      <c r="O91" t="n">
         <v>25</v>
       </c>
-      <c r="O91" t="n">
+      <c r="P91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5290,46 +5565,49 @@
         <v>94108</v>
       </c>
       <c r="C92" t="n">
+        <v>147</v>
+      </c>
+      <c r="D92" t="n">
         <v>115250</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>130</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>35</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>19</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>10430</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>8.1</v>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>104</v>
       </c>
-      <c r="L92" t="n">
-        <v>40</v>
-      </c>
       <c r="M92" t="n">
-        <v>4.684462696783025</v>
+        <v>40</v>
       </c>
       <c r="N92" t="n">
+        <v>4.709103353867214</v>
+      </c>
+      <c r="O92" t="n">
         <v>32</v>
       </c>
-      <c r="O92" t="n">
+      <c r="P92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5343,46 +5621,49 @@
         <v>94104</v>
       </c>
       <c r="C93" t="n">
+        <v>148</v>
+      </c>
+      <c r="D93" t="n">
         <v>87200</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>105</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>30</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>17</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>5406</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>2.4</v>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>IT</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>131</v>
       </c>
-      <c r="L93" t="n">
-        <v>40</v>
-      </c>
       <c r="M93" t="n">
-        <v>1.546885694729637</v>
+        <v>40</v>
       </c>
       <c r="N93" t="n">
+        <v>1.571526351813826</v>
+      </c>
+      <c r="O93" t="n">
         <v>26</v>
       </c>
-      <c r="O93" t="n">
+      <c r="P93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5396,46 +5677,49 @@
         <v>94103</v>
       </c>
       <c r="C94" t="n">
+        <v>149</v>
+      </c>
+      <c r="D94" t="n">
         <v>220000</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>180</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>45</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>23</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>50600</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>10.5</v>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>120</v>
       </c>
-      <c r="L94" t="n">
-        <v>40</v>
-      </c>
       <c r="M94" t="n">
-        <v>5.492128678986996</v>
+        <v>40</v>
       </c>
       <c r="N94" t="n">
-        <v>40</v>
+        <v>5.516769336071184</v>
       </c>
       <c r="O94" t="n">
+        <v>40</v>
+      </c>
+      <c r="P94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5449,46 +5733,49 @@
         <v>94112</v>
       </c>
       <c r="C95" t="n">
+        <v>150</v>
+      </c>
+      <c r="D95" t="n">
         <v>149000</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>130</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>35</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>19</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>18253</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>8.5</v>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>148</v>
       </c>
-      <c r="L95" t="n">
-        <v>40</v>
-      </c>
       <c r="M95" t="n">
-        <v>4.618754277891855</v>
+        <v>40</v>
       </c>
       <c r="N95" t="n">
+        <v>4.643394934976044</v>
+      </c>
+      <c r="O95" t="n">
         <v>30</v>
       </c>
-      <c r="O95" t="n">
+      <c r="P95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5502,46 +5789,49 @@
         <v>94104</v>
       </c>
       <c r="C96" t="n">
+        <v>151</v>
+      </c>
+      <c r="D96" t="n">
         <v>88400</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>105</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>30</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>17</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>5658</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>2.8</v>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>111</v>
       </c>
-      <c r="L96" t="n">
-        <v>40</v>
-      </c>
       <c r="M96" t="n">
-        <v>1.867214236824093</v>
+        <v>40</v>
       </c>
       <c r="N96" t="n">
+        <v>1.891854893908282</v>
+      </c>
+      <c r="O96" t="n">
         <v>32</v>
       </c>
-      <c r="O96" t="n">
+      <c r="P96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5555,46 +5845,49 @@
         <v>98103</v>
       </c>
       <c r="C97" t="n">
+        <v>152</v>
+      </c>
+      <c r="D97" t="n">
         <v>88100</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>105</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>30</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>17</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>5594</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>2.7</v>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>151</v>
       </c>
-      <c r="L97" t="n">
-        <v>40</v>
-      </c>
       <c r="M97" t="n">
-        <v>1.68104038329911</v>
+        <v>40</v>
       </c>
       <c r="N97" t="n">
+        <v>1.705681040383299</v>
+      </c>
+      <c r="O97" t="n">
         <v>28</v>
       </c>
-      <c r="O97" t="n">
+      <c r="P97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,46 +5901,49 @@
         <v>78723</v>
       </c>
       <c r="C98" t="n">
+        <v>153</v>
+      </c>
+      <c r="D98" t="n">
         <v>95900</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>105</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>30</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>17</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>7336</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>5.3</v>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>86</v>
       </c>
-      <c r="L98" t="n">
-        <v>40</v>
-      </c>
       <c r="M98" t="n">
-        <v>2.694045174537988</v>
+        <v>40</v>
       </c>
       <c r="N98" t="n">
+        <v>2.718685831622177</v>
+      </c>
+      <c r="O98" t="n">
         <v>28</v>
       </c>
-      <c r="O98" t="n">
+      <c r="P98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5661,46 +5957,49 @@
         <v>78712</v>
       </c>
       <c r="C99" t="n">
+        <v>154</v>
+      </c>
+      <c r="D99" t="n">
         <v>88100</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>105</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>30</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>17</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>5594</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>2.7</v>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>74</v>
       </c>
-      <c r="L99" t="n">
-        <v>40</v>
-      </c>
       <c r="M99" t="n">
-        <v>2.127310061601643</v>
+        <v>40</v>
       </c>
       <c r="N99" t="n">
+        <v>2.151950718685832</v>
+      </c>
+      <c r="O99" t="n">
         <v>31</v>
       </c>
-      <c r="O99" t="n">
+      <c r="P99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5714,46 +6013,49 @@
         <v>78703</v>
       </c>
       <c r="C100" t="n">
+        <v>155</v>
+      </c>
+      <c r="D100" t="n">
         <v>87800</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>105</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>30</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>17</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>5531</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>2.6</v>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>121</v>
       </c>
-      <c r="L100" t="n">
-        <v>40</v>
-      </c>
       <c r="M100" t="n">
-        <v>1.612594113620808</v>
+        <v>40</v>
       </c>
       <c r="N100" t="n">
+        <v>1.637234770704997</v>
+      </c>
+      <c r="O100" t="n">
         <v>24</v>
       </c>
-      <c r="O100" t="n">
+      <c r="P100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5767,46 +6069,49 @@
         <v>98109</v>
       </c>
       <c r="C101" t="n">
+        <v>156</v>
+      </c>
+      <c r="D101" t="n">
         <v>300000</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>230</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>55</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>27</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>90000</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>12.3</v>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>Executive</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>67</v>
       </c>
-      <c r="L101" t="n">
-        <v>40</v>
-      </c>
       <c r="M101" t="n">
-        <v>3.937029431895962</v>
+        <v>40</v>
       </c>
       <c r="N101" t="n">
+        <v>3.961670088980151</v>
+      </c>
+      <c r="O101" t="n">
         <v>35</v>
       </c>
-      <c r="O101" t="n">
+      <c r="P101" t="n">
         <v>0</v>
       </c>
     </row>

--- a/01-Resignation-Predictor/updated_data/updated_data.xlsx
+++ b/01-Resignation-Predictor/updated_data/updated_data.xlsx
@@ -562,7 +562,7 @@
         <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>2.803559206023272</v>
+        <v>2.806297056810404</v>
       </c>
       <c r="O2" t="n">
         <v>34</v>
@@ -618,7 +618,7 @@
         <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>1.566050650239562</v>
+        <v>1.568788501026694</v>
       </c>
       <c r="O3" t="n">
         <v>29</v>
@@ -674,7 +674,7 @@
         <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1.248459958932238</v>
+        <v>1.25119780971937</v>
       </c>
       <c r="O4" t="n">
         <v>31</v>
@@ -730,7 +730,7 @@
         <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>2.299794661190965</v>
+        <v>2.302532511978097</v>
       </c>
       <c r="O5" t="n">
         <v>31</v>
@@ -786,7 +786,7 @@
         <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>5.78507871321013</v>
+        <v>5.787816563997263</v>
       </c>
       <c r="O6" t="n">
         <v>41</v>
@@ -842,7 +842,7 @@
         <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>4.506502395619439</v>
+        <v>4.509240246406571</v>
       </c>
       <c r="O7" t="n">
         <v>40</v>
@@ -898,7 +898,7 @@
         <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>1.875427789185489</v>
+        <v>1.878165639972621</v>
       </c>
       <c r="O8" t="n">
         <v>33</v>
@@ -954,7 +954,7 @@
         <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>2.165639972621492</v>
+        <v>2.168377823408624</v>
       </c>
       <c r="O9" t="n">
         <v>26</v>
@@ -1010,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>2.264202600958248</v>
+        <v>2.26694045174538</v>
       </c>
       <c r="O10" t="n">
         <v>34</v>
@@ -1066,7 +1066,7 @@
         <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>1.51129363449692</v>
+        <v>1.514031485284052</v>
       </c>
       <c r="O11" t="n">
         <v>29</v>
@@ -1122,7 +1122,7 @@
         <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>1.804243668720055</v>
+        <v>1.806981519507187</v>
       </c>
       <c r="O12" t="n">
         <v>27</v>
@@ -1178,7 +1178,7 @@
         <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>2.97056810403833</v>
+        <v>2.973305954825462</v>
       </c>
       <c r="O13" t="n">
         <v>31</v>
@@ -1234,7 +1234,7 @@
         <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>1.831622176591376</v>
+        <v>1.834360027378508</v>
       </c>
       <c r="O14" t="n">
         <v>31</v>
@@ -1290,7 +1290,7 @@
         <v>40</v>
       </c>
       <c r="N15" t="n">
-        <v>1.979466119096509</v>
+        <v>1.982203969883641</v>
       </c>
       <c r="O15" t="n">
         <v>34</v>
@@ -1346,7 +1346,7 @@
         <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>2.412046543463381</v>
+        <v>2.414784394250513</v>
       </c>
       <c r="O16" t="n">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>40</v>
       </c>
       <c r="N17" t="n">
-        <v>3.055441478439425</v>
+        <v>3.058179329226557</v>
       </c>
       <c r="O17" t="n">
         <v>34</v>
@@ -1458,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="N18" t="n">
-        <v>5.377138945927447</v>
+        <v>5.379876796714579</v>
       </c>
       <c r="O18" t="n">
         <v>33</v>
@@ -1514,7 +1514,7 @@
         <v>40</v>
       </c>
       <c r="N19" t="n">
-        <v>1.738535249828884</v>
+        <v>1.741273100616016</v>
       </c>
       <c r="O19" t="n">
         <v>28</v>
@@ -1570,7 +1570,7 @@
         <v>40</v>
       </c>
       <c r="N20" t="n">
-        <v>4.810403832991102</v>
+        <v>4.813141683778234</v>
       </c>
       <c r="O20" t="n">
         <v>38</v>
@@ -1626,7 +1626,7 @@
         <v>40</v>
       </c>
       <c r="N21" t="n">
-        <v>5.470225872689938</v>
+        <v>5.47296372347707</v>
       </c>
       <c r="O21" t="n">
         <v>33</v>
@@ -1682,7 +1682,7 @@
         <v>40</v>
       </c>
       <c r="N22" t="n">
-        <v>5.229295003422314</v>
+        <v>5.232032854209446</v>
       </c>
       <c r="O22" t="n">
         <v>36</v>
@@ -1738,7 +1738,7 @@
         <v>40</v>
       </c>
       <c r="N23" t="n">
-        <v>4.97741273100616</v>
+        <v>4.980150581793292</v>
       </c>
       <c r="O23" t="n">
         <v>38</v>
@@ -1794,7 +1794,7 @@
         <v>40</v>
       </c>
       <c r="N24" t="n">
-        <v>3.811088295687885</v>
+        <v>3.813826146475017</v>
       </c>
       <c r="O24" t="n">
         <v>34</v>
@@ -1850,7 +1850,7 @@
         <v>40</v>
       </c>
       <c r="N25" t="n">
-        <v>2.38466803559206</v>
+        <v>2.387405886379192</v>
       </c>
       <c r="O25" t="n">
         <v>29</v>
@@ -1906,7 +1906,7 @@
         <v>40</v>
       </c>
       <c r="N26" t="n">
-        <v>2.628336755646817</v>
+        <v>2.631074606433949</v>
       </c>
       <c r="O26" t="n">
         <v>31</v>
@@ -1962,7 +1962,7 @@
         <v>40</v>
       </c>
       <c r="N27" t="n">
-        <v>2.357289527720739</v>
+        <v>2.360027378507871</v>
       </c>
       <c r="O27" t="n">
         <v>27</v>
@@ -2018,7 +2018,7 @@
         <v>40</v>
       </c>
       <c r="N28" t="n">
-        <v>2.138261464750171</v>
+        <v>2.140999315537303</v>
       </c>
       <c r="O28" t="n">
         <v>26</v>
@@ -2074,7 +2074,7 @@
         <v>40</v>
       </c>
       <c r="N29" t="n">
-        <v>2.069815195071869</v>
+        <v>2.072553045859001</v>
       </c>
       <c r="O29" t="n">
         <v>28</v>
@@ -2130,7 +2130,7 @@
         <v>40</v>
       </c>
       <c r="N30" t="n">
-        <v>2.677618069815195</v>
+        <v>2.680355920602327</v>
       </c>
       <c r="O30" t="n">
         <v>33</v>
@@ -2186,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="N31" t="n">
-        <v>2.847364818617385</v>
+        <v>2.850102669404517</v>
       </c>
       <c r="O31" t="n">
         <v>29</v>
@@ -2242,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="N32" t="n">
-        <v>3.0362765229295</v>
+        <v>3.039014373716633</v>
       </c>
       <c r="O32" t="n">
         <v>30</v>
@@ -2298,7 +2298,7 @@
         <v>40</v>
       </c>
       <c r="N33" t="n">
-        <v>1.973990417522245</v>
+        <v>1.976728268309377</v>
       </c>
       <c r="O33" t="n">
         <v>26</v>
@@ -2354,7 +2354,7 @@
         <v>40</v>
       </c>
       <c r="N34" t="n">
-        <v>2.71047227926078</v>
+        <v>2.713210130047913</v>
       </c>
       <c r="O34" t="n">
         <v>32</v>
@@ -2410,7 +2410,7 @@
         <v>40</v>
       </c>
       <c r="N35" t="n">
-        <v>3.225188227241615</v>
+        <v>3.227926078028748</v>
       </c>
       <c r="O35" t="n">
         <v>30</v>
@@ -2466,7 +2466,7 @@
         <v>40</v>
       </c>
       <c r="N36" t="n">
-        <v>2.663928815879534</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="O36" t="n">
         <v>34</v>
@@ -2522,7 +2522,7 @@
         <v>40</v>
       </c>
       <c r="N37" t="n">
-        <v>3.285420944558521</v>
+        <v>3.288158795345653</v>
       </c>
       <c r="O37" t="n">
         <v>31</v>
@@ -2578,7 +2578,7 @@
         <v>40</v>
       </c>
       <c r="N38" t="n">
-        <v>1.149897330595482</v>
+        <v>1.152635181382615</v>
       </c>
       <c r="O38" t="n">
         <v>23</v>
@@ -2634,7 +2634,7 @@
         <v>40</v>
       </c>
       <c r="N39" t="n">
-        <v>1.314168377823409</v>
+        <v>1.316906228610541</v>
       </c>
       <c r="O39" t="n">
         <v>31</v>
@@ -2690,7 +2690,7 @@
         <v>40</v>
       </c>
       <c r="N40" t="n">
-        <v>1.371663244353183</v>
+        <v>1.374401095140315</v>
       </c>
       <c r="O40" t="n">
         <v>25</v>
@@ -2746,7 +2746,7 @@
         <v>40</v>
       </c>
       <c r="N41" t="n">
-        <v>1.412731006160164</v>
+        <v>1.415468856947296</v>
       </c>
       <c r="O41" t="n">
         <v>30</v>
@@ -2802,7 +2802,7 @@
         <v>40</v>
       </c>
       <c r="N42" t="n">
-        <v>1.248459958932238</v>
+        <v>1.25119780971937</v>
       </c>
       <c r="O42" t="n">
         <v>26</v>
@@ -2858,7 +2858,7 @@
         <v>40</v>
       </c>
       <c r="N43" t="n">
-        <v>1.264887063655031</v>
+        <v>1.267624914442163</v>
       </c>
       <c r="O43" t="n">
         <v>30</v>
@@ -2914,7 +2914,7 @@
         <v>40</v>
       </c>
       <c r="N44" t="n">
-        <v>1.385352498288843</v>
+        <v>1.388090349075975</v>
       </c>
       <c r="O44" t="n">
         <v>28</v>
@@ -2970,7 +2970,7 @@
         <v>40</v>
       </c>
       <c r="N45" t="n">
-        <v>4.224503764544832</v>
+        <v>4.227241615331964</v>
       </c>
       <c r="O45" t="n">
         <v>34</v>
@@ -3026,7 +3026,7 @@
         <v>40</v>
       </c>
       <c r="N46" t="n">
-        <v>3.696098562628337</v>
+        <v>3.698836413415469</v>
       </c>
       <c r="O46" t="n">
         <v>33</v>
@@ -3082,7 +3082,7 @@
         <v>40</v>
       </c>
       <c r="N47" t="n">
-        <v>3.950718685831622</v>
+        <v>3.953456536618754</v>
       </c>
       <c r="O47" t="n">
         <v>31</v>
@@ -3138,7 +3138,7 @@
         <v>40</v>
       </c>
       <c r="N48" t="n">
-        <v>4.262833675564682</v>
+        <v>4.265571526351814</v>
       </c>
       <c r="O48" t="n">
         <v>34</v>
@@ -3194,7 +3194,7 @@
         <v>40</v>
       </c>
       <c r="N49" t="n">
-        <v>3.868583162217659</v>
+        <v>3.871321013004791</v>
       </c>
       <c r="O49" t="n">
         <v>36</v>
@@ -3250,7 +3250,7 @@
         <v>40</v>
       </c>
       <c r="N50" t="n">
-        <v>3.805612594113621</v>
+        <v>3.808350444900753</v>
       </c>
       <c r="O50" t="n">
         <v>32</v>
@@ -3306,7 +3306,7 @@
         <v>40</v>
       </c>
       <c r="N51" t="n">
-        <v>4.216290212183436</v>
+        <v>4.219028062970568</v>
       </c>
       <c r="O51" t="n">
         <v>36</v>
@@ -3362,7 +3362,7 @@
         <v>40</v>
       </c>
       <c r="N52" t="n">
-        <v>4.164271047227926</v>
+        <v>4.167008898015058</v>
       </c>
       <c r="O52" t="n">
         <v>33</v>
@@ -3418,7 +3418,7 @@
         <v>40</v>
       </c>
       <c r="N53" t="n">
-        <v>1.869952087611225</v>
+        <v>1.872689938398357</v>
       </c>
       <c r="O53" t="n">
         <v>30</v>
@@ -3474,7 +3474,7 @@
         <v>40</v>
       </c>
       <c r="N54" t="n">
-        <v>2.119096509240246</v>
+        <v>2.121834360027378</v>
       </c>
       <c r="O54" t="n">
         <v>28</v>
@@ -3530,7 +3530,7 @@
         <v>40</v>
       </c>
       <c r="N55" t="n">
-        <v>1.579739904175222</v>
+        <v>1.582477754962355</v>
       </c>
       <c r="O55" t="n">
         <v>28</v>
@@ -3586,7 +3586,7 @@
         <v>40</v>
       </c>
       <c r="N56" t="n">
-        <v>2.234086242299794</v>
+        <v>2.236824093086927</v>
       </c>
       <c r="O56" t="n">
         <v>26</v>
@@ -3642,7 +3642,7 @@
         <v>40</v>
       </c>
       <c r="N57" t="n">
-        <v>2.510609171800137</v>
+        <v>2.513347022587269</v>
       </c>
       <c r="O57" t="n">
         <v>31</v>
@@ -3698,7 +3698,7 @@
         <v>40</v>
       </c>
       <c r="N58" t="n">
-        <v>2.203969883641342</v>
+        <v>2.206707734428474</v>
       </c>
       <c r="O58" t="n">
         <v>27</v>
@@ -3754,7 +3754,7 @@
         <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>1.711156741957563</v>
+        <v>1.713894592744695</v>
       </c>
       <c r="O59" t="n">
         <v>33</v>
@@ -3810,7 +3810,7 @@
         <v>40</v>
       </c>
       <c r="N60" t="n">
-        <v>1.842573579739904</v>
+        <v>1.845311430527036</v>
       </c>
       <c r="O60" t="n">
         <v>39</v>
@@ -3866,7 +3866,7 @@
         <v>40</v>
       </c>
       <c r="N61" t="n">
-        <v>5.683778234086242</v>
+        <v>5.686516084873374</v>
       </c>
       <c r="O61" t="n">
         <v>34</v>
@@ -3922,7 +3922,7 @@
         <v>40</v>
       </c>
       <c r="N62" t="n">
-        <v>3.564681724845996</v>
+        <v>3.567419575633128</v>
       </c>
       <c r="O62" t="n">
         <v>33</v>
@@ -3978,7 +3978,7 @@
         <v>40</v>
       </c>
       <c r="N63" t="n">
-        <v>4.495550992470911</v>
+        <v>4.498288843258043</v>
       </c>
       <c r="O63" t="n">
         <v>37</v>
@@ -4034,7 +4034,7 @@
         <v>40</v>
       </c>
       <c r="N64" t="n">
-        <v>5.056810403832992</v>
+        <v>5.059548254620124</v>
       </c>
       <c r="O64" t="n">
         <v>38</v>
@@ -4090,7 +4090,7 @@
         <v>40</v>
       </c>
       <c r="N65" t="n">
-        <v>3.36208076659822</v>
+        <v>3.364818617385353</v>
       </c>
       <c r="O65" t="n">
         <v>35</v>
@@ -4146,7 +4146,7 @@
         <v>40</v>
       </c>
       <c r="N66" t="n">
-        <v>4.851471594798084</v>
+        <v>4.854209445585216</v>
       </c>
       <c r="O66" t="n">
         <v>38</v>
@@ -4202,7 +4202,7 @@
         <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>5.073237508555784</v>
+        <v>5.075975359342916</v>
       </c>
       <c r="O67" t="n">
         <v>31</v>
@@ -4258,7 +4258,7 @@
         <v>40</v>
       </c>
       <c r="N68" t="n">
-        <v>2.579055441478439</v>
+        <v>2.581793292265572</v>
       </c>
       <c r="O68" t="n">
         <v>30</v>
@@ -4314,7 +4314,7 @@
         <v>40</v>
       </c>
       <c r="N69" t="n">
-        <v>2.64476386036961</v>
+        <v>2.647501711156742</v>
       </c>
       <c r="O69" t="n">
         <v>35</v>
@@ -4370,7 +4370,7 @@
         <v>40</v>
       </c>
       <c r="N70" t="n">
-        <v>2.784394250513347</v>
+        <v>2.787132101300479</v>
       </c>
       <c r="O70" t="n">
         <v>33</v>
@@ -4426,7 +4426,7 @@
         <v>40</v>
       </c>
       <c r="N71" t="n">
-        <v>3.225188227241615</v>
+        <v>3.227926078028748</v>
       </c>
       <c r="O71" t="n">
         <v>31</v>
@@ -4482,7 +4482,7 @@
         <v>40</v>
       </c>
       <c r="N72" t="n">
-        <v>3.373032169746749</v>
+        <v>3.375770020533881</v>
       </c>
       <c r="O72" t="n">
         <v>30</v>
@@ -4538,7 +4538,7 @@
         <v>40</v>
       </c>
       <c r="N73" t="n">
-        <v>3.600273785078713</v>
+        <v>3.603011635865845</v>
       </c>
       <c r="O73" t="n">
         <v>33</v>
@@ -4594,7 +4594,7 @@
         <v>40</v>
       </c>
       <c r="N74" t="n">
-        <v>3.794661190965092</v>
+        <v>3.797399041752224</v>
       </c>
       <c r="O74" t="n">
         <v>36</v>
@@ -4650,7 +4650,7 @@
         <v>40</v>
       </c>
       <c r="N75" t="n">
-        <v>5.601642710472279</v>
+        <v>5.604380561259411</v>
       </c>
       <c r="O75" t="n">
         <v>30</v>
@@ -4706,7 +4706,7 @@
         <v>40</v>
       </c>
       <c r="N76" t="n">
-        <v>3.879534565366188</v>
+        <v>3.88227241615332</v>
       </c>
       <c r="O76" t="n">
         <v>34</v>
@@ -4762,7 +4762,7 @@
         <v>40</v>
       </c>
       <c r="N77" t="n">
-        <v>2.537987679671458</v>
+        <v>2.54072553045859</v>
       </c>
       <c r="O77" t="n">
         <v>27</v>
@@ -4818,7 +4818,7 @@
         <v>40</v>
       </c>
       <c r="N78" t="n">
-        <v>2.784394250513347</v>
+        <v>2.787132101300479</v>
       </c>
       <c r="O78" t="n">
         <v>29</v>
@@ -4874,7 +4874,7 @@
         <v>40</v>
       </c>
       <c r="N79" t="n">
-        <v>4.558521560574949</v>
+        <v>4.561259411362081</v>
       </c>
       <c r="O79" t="n">
         <v>31</v>
@@ -4930,7 +4930,7 @@
         <v>40</v>
       </c>
       <c r="N80" t="n">
-        <v>4.046543463381246</v>
+        <v>4.049281314168378</v>
       </c>
       <c r="O80" t="n">
         <v>36</v>
@@ -4986,7 +4986,7 @@
         <v>40</v>
       </c>
       <c r="N81" t="n">
-        <v>5.149897330595483</v>
+        <v>5.152635181382615</v>
       </c>
       <c r="O81" t="n">
         <v>36</v>
@@ -5042,7 +5042,7 @@
         <v>40</v>
       </c>
       <c r="N82" t="n">
-        <v>4.262833675564682</v>
+        <v>4.265571526351814</v>
       </c>
       <c r="O82" t="n">
         <v>36</v>
@@ -5098,7 +5098,7 @@
         <v>40</v>
       </c>
       <c r="N83" t="n">
-        <v>2.989733059548255</v>
+        <v>2.992470910335387</v>
       </c>
       <c r="O83" t="n">
         <v>28</v>
@@ -5154,7 +5154,7 @@
         <v>40</v>
       </c>
       <c r="N84" t="n">
-        <v>2.48870636550308</v>
+        <v>2.491444216290212</v>
       </c>
       <c r="O84" t="n">
         <v>32</v>
@@ -5210,7 +5210,7 @@
         <v>40</v>
       </c>
       <c r="N85" t="n">
-        <v>3.879534565366188</v>
+        <v>3.88227241615332</v>
       </c>
       <c r="O85" t="n">
         <v>32</v>
@@ -5266,7 +5266,7 @@
         <v>40</v>
       </c>
       <c r="N86" t="n">
-        <v>5.300479123887748</v>
+        <v>5.30321697467488</v>
       </c>
       <c r="O86" t="n">
         <v>32</v>
@@ -5322,7 +5322,7 @@
         <v>40</v>
       </c>
       <c r="N87" t="n">
-        <v>4.068446269678303</v>
+        <v>4.071184120465435</v>
       </c>
       <c r="O87" t="n">
         <v>35</v>
@@ -5378,7 +5378,7 @@
         <v>40</v>
       </c>
       <c r="N88" t="n">
-        <v>4.109514031485284</v>
+        <v>4.112251882272417</v>
       </c>
       <c r="O88" t="n">
         <v>32</v>
@@ -5434,7 +5434,7 @@
         <v>40</v>
       </c>
       <c r="N89" t="n">
-        <v>4.213552361396304</v>
+        <v>4.216290212183436</v>
       </c>
       <c r="O89" t="n">
         <v>33</v>
@@ -5490,7 +5490,7 @@
         <v>40</v>
       </c>
       <c r="N90" t="n">
-        <v>3.151266255989049</v>
+        <v>3.154004106776181</v>
       </c>
       <c r="O90" t="n">
         <v>31</v>
@@ -5546,7 +5546,7 @@
         <v>40</v>
       </c>
       <c r="N91" t="n">
-        <v>2.064339493497604</v>
+        <v>2.067077344284737</v>
       </c>
       <c r="O91" t="n">
         <v>25</v>
@@ -5602,7 +5602,7 @@
         <v>40</v>
       </c>
       <c r="N92" t="n">
-        <v>4.709103353867214</v>
+        <v>4.711841204654347</v>
       </c>
       <c r="O92" t="n">
         <v>32</v>
@@ -5658,7 +5658,7 @@
         <v>40</v>
       </c>
       <c r="N93" t="n">
-        <v>1.571526351813826</v>
+        <v>1.574264202600958</v>
       </c>
       <c r="O93" t="n">
         <v>26</v>
@@ -5714,7 +5714,7 @@
         <v>40</v>
       </c>
       <c r="N94" t="n">
-        <v>5.516769336071184</v>
+        <v>5.519507186858316</v>
       </c>
       <c r="O94" t="n">
         <v>40</v>
@@ -5770,7 +5770,7 @@
         <v>40</v>
       </c>
       <c r="N95" t="n">
-        <v>4.643394934976044</v>
+        <v>4.646132785763176</v>
       </c>
       <c r="O95" t="n">
         <v>30</v>
@@ -5826,7 +5826,7 @@
         <v>40</v>
       </c>
       <c r="N96" t="n">
-        <v>1.891854893908282</v>
+        <v>1.894592744695414</v>
       </c>
       <c r="O96" t="n">
         <v>32</v>
@@ -5882,7 +5882,7 @@
         <v>40</v>
       </c>
       <c r="N97" t="n">
-        <v>1.705681040383299</v>
+        <v>1.708418891170431</v>
       </c>
       <c r="O97" t="n">
         <v>28</v>
@@ -5938,7 +5938,7 @@
         <v>40</v>
       </c>
       <c r="N98" t="n">
-        <v>2.718685831622177</v>
+        <v>2.721423682409309</v>
       </c>
       <c r="O98" t="n">
         <v>28</v>
@@ -5994,7 +5994,7 @@
         <v>40</v>
       </c>
       <c r="N99" t="n">
-        <v>2.151950718685832</v>
+        <v>2.154688569472964</v>
       </c>
       <c r="O99" t="n">
         <v>31</v>
@@ -6050,7 +6050,7 @@
         <v>40</v>
       </c>
       <c r="N100" t="n">
-        <v>1.637234770704997</v>
+        <v>1.639972621492129</v>
       </c>
       <c r="O100" t="n">
         <v>24</v>
@@ -6106,7 +6106,7 @@
         <v>40</v>
       </c>
       <c r="N101" t="n">
-        <v>3.961670088980151</v>
+        <v>3.964407939767283</v>
       </c>
       <c r="O101" t="n">
         <v>35</v>

--- a/01-Resignation-Predictor/updated_data/updated_data.xlsx
+++ b/01-Resignation-Predictor/updated_data/updated_data.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Zip Code</t>
+          <t>Zip_Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,27 +451,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Employee Annual Salary$</t>
+          <t>Employee_Annual_Salary</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Medical contribution$</t>
+          <t>Monthly_Medical_contribution</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Dental Contribution$</t>
+          <t>Monthly_Dental_Contribution</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Vision Contribution$</t>
+          <t>Monthly_Vision_Contribution</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Bonus $</t>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Employee HR rate</t>
+          <t>Employee_HR_rate</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t># of Hours per week</t>
+          <t>Hours_per_week</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
